--- a/src/test/resources/AutomationProjectExcelsheet.xlsx
+++ b/src/test/resources/AutomationProjectExcelsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddan\eclipse-workspace\NellyAndLakshmiProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B71F896-8AD7-4984-95EA-0F73A212276A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05510AC6-93C5-46D4-88CD-DDF07DEB77B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{3074090B-43F8-40D6-B447-D8ED528D17BA}"/>
   </bookViews>
@@ -136,28 +136,28 @@
     <t>Willk</t>
   </si>
   <si>
-    <t>Tescoll</t>
-  </si>
-  <si>
-    <t>Tescol@gmail.com</t>
-  </si>
-  <si>
-    <t>Wilkol</t>
-  </si>
-  <si>
-    <t>wilkol@gmail.com</t>
-  </si>
-  <si>
-    <t>Digitall</t>
-  </si>
-  <si>
-    <t>Digitals@gmail.com</t>
-  </si>
-  <si>
-    <t>Retails</t>
-  </si>
-  <si>
-    <t>Retails@gmail.com</t>
+    <t>Digitallgh</t>
+  </si>
+  <si>
+    <t>Digitalsgh@gmail.com</t>
+  </si>
+  <si>
+    <t>Retailsh</t>
+  </si>
+  <si>
+    <t>Retailsh@gmail.com</t>
+  </si>
+  <si>
+    <t>Tescollgh</t>
+  </si>
+  <si>
+    <t>Tescolgh@gmail.com</t>
+  </si>
+  <si>
+    <t>Wilkolgh</t>
+  </si>
+  <si>
+    <t>wilkolgh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,13 +560,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -580,13 +580,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -620,13 +620,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>

--- a/src/test/resources/AutomationProjectExcelsheet.xlsx
+++ b/src/test/resources/AutomationProjectExcelsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddan\eclipse-workspace\NellyAndLakshmiProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05510AC6-93C5-46D4-88CD-DDF07DEB77B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F21475-7C83-442F-B773-ED3FF0CE52CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{3074090B-43F8-40D6-B447-D8ED528D17BA}"/>
   </bookViews>
@@ -136,28 +136,28 @@
     <t>Willk</t>
   </si>
   <si>
-    <t>Digitallgh</t>
-  </si>
-  <si>
-    <t>Digitalsgh@gmail.com</t>
-  </si>
-  <si>
-    <t>Retailsh</t>
-  </si>
-  <si>
-    <t>Retailsh@gmail.com</t>
-  </si>
-  <si>
-    <t>Tescollgh</t>
-  </si>
-  <si>
-    <t>Tescolgh@gmail.com</t>
-  </si>
-  <si>
-    <t>Wilkolgh</t>
-  </si>
-  <si>
-    <t>wilkolgh@gmail.com</t>
+    <t>Digitallghj</t>
+  </si>
+  <si>
+    <t>Digitalsghj@gmail.com</t>
+  </si>
+  <si>
+    <t>Retailshj</t>
+  </si>
+  <si>
+    <t>Retailshj@gmail.com</t>
+  </si>
+  <si>
+    <t>Tescollghh</t>
+  </si>
+  <si>
+    <t>Tescolghj@gmail.com</t>
+  </si>
+  <si>
+    <t>Wilkolghj</t>
+  </si>
+  <si>
+    <t>wilkolghj@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
